--- a/List of Countries by number of Internet Users - Sheet1.xlsx
+++ b/List of Countries by number of Internet Users - Sheet1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloalcontin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42101105-5B18-C849-9118-E811C01E0687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A501BF0B-C20E-FD49-A64E-EDA524C5D91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1000" windowWidth="27640" windowHeight="15480"/>
+    <workbookView xWindow="560" yWindow="1000" windowWidth="27640" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of Countries by number of " sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="221">
   <si>
     <t>Country or Area</t>
   </si>
@@ -631,9 +631,6 @@
     <t>Jersey</t>
   </si>
   <si>
-    <t>41.03% (2012)</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -649,9 +646,6 @@
     <t>Gibraltar</t>
   </si>
   <si>
-    <t>94.44% (2016)</t>
-  </si>
-  <si>
     <t>Marshall Islands</t>
   </si>
   <si>
@@ -664,15 +658,9 @@
     <t>British Virgin Islands</t>
   </si>
   <si>
-    <t>37.60% (2012)</t>
-  </si>
-  <si>
     <t>Anguilla</t>
   </si>
   <si>
-    <t>81.57% (2016)</t>
-  </si>
-  <si>
     <t>Nauru</t>
   </si>
   <si>
@@ -685,25 +673,13 @@
     <t>Falkland Islands</t>
   </si>
   <si>
-    <t>99.02% (2016)</t>
-  </si>
-  <si>
     <t>Montserrat</t>
   </si>
   <si>
-    <t>54.55% (2013)</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
-    <t>8.95% (2012)</t>
-  </si>
-  <si>
     <t>Niue</t>
-  </si>
-  <si>
-    <t>86.90% (2013)</t>
   </si>
   <si>
     <t>Ascension</t>
@@ -712,7 +688,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1548,10 +1524,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E218" sqref="E218"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5531,16 +5509,16 @@
       <c r="D199">
         <v>198</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="2">
+        <v>0.4103</v>
+      </c>
+      <c r="F199" t="s">
         <v>203</v>
-      </c>
-      <c r="F199" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B200" s="1">
         <v>37553</v>
@@ -5560,7 +5538,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B201" s="1">
         <v>37257</v>
@@ -5580,7 +5558,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B202" s="1">
         <v>37201</v>
@@ -5600,7 +5578,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B203" s="1">
         <v>32494</v>
@@ -5611,16 +5589,16 @@
       <c r="D203">
         <v>202</v>
       </c>
-      <c r="E203" t="s">
-        <v>209</v>
+      <c r="E203" s="2">
+        <v>0.94440000000000002</v>
       </c>
       <c r="F203" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B204" s="1">
         <v>20560</v>
@@ -5640,7 +5618,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B205" s="1">
         <v>20100</v>
@@ -5660,7 +5638,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B206" s="1">
         <v>16971</v>
@@ -5680,7 +5658,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B207" s="1">
         <v>14456</v>
@@ -5691,8 +5669,8 @@
       <c r="D207">
         <v>206</v>
       </c>
-      <c r="E207" t="s">
-        <v>214</v>
+      <c r="E207" s="2">
+        <v>0.376</v>
       </c>
       <c r="F207">
         <v>141</v>
@@ -5700,7 +5678,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B208" s="1">
         <v>12043</v>
@@ -5711,8 +5689,8 @@
       <c r="D208">
         <v>207</v>
       </c>
-      <c r="E208" t="s">
-        <v>216</v>
+      <c r="E208" s="2">
+        <v>0.81569999999999998</v>
       </c>
       <c r="F208">
         <v>44</v>
@@ -5720,7 +5698,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B209" s="1">
         <v>6475</v>
@@ -5740,7 +5718,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B210" s="1">
         <v>5520</v>
@@ -5760,7 +5738,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B211" s="1">
         <v>2906</v>
@@ -5771,16 +5749,16 @@
       <c r="D211">
         <v>210</v>
       </c>
-      <c r="E211" t="s">
-        <v>214</v>
+      <c r="E211" s="2">
+        <v>0.376</v>
       </c>
       <c r="F211" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B212" s="1">
         <v>2881</v>
@@ -5791,16 +5769,16 @@
       <c r="D212">
         <v>211</v>
       </c>
-      <c r="E212" t="s">
-        <v>221</v>
+      <c r="E212" s="2">
+        <v>0.99019999999999997</v>
       </c>
       <c r="F212" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B213" s="1">
         <v>2833</v>
@@ -5811,8 +5789,8 @@
       <c r="D213">
         <v>212</v>
       </c>
-      <c r="E213" t="s">
-        <v>223</v>
+      <c r="E213" s="2">
+        <v>0.54549999999999998</v>
       </c>
       <c r="F213">
         <v>115</v>
@@ -5820,7 +5798,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B214" s="1">
         <v>1383</v>
@@ -5831,16 +5809,16 @@
       <c r="D214">
         <v>213</v>
       </c>
-      <c r="E214" t="s">
-        <v>225</v>
+      <c r="E214" s="2">
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="F214" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B215" s="1">
         <v>1034</v>
@@ -5851,8 +5829,8 @@
       <c r="D215">
         <v>214</v>
       </c>
-      <c r="E215" t="s">
-        <v>227</v>
+      <c r="E215" s="2">
+        <v>0.86899999999999999</v>
       </c>
       <c r="F215">
         <v>30</v>
@@ -5860,7 +5838,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B216">
         <v>361</v>
@@ -5871,11 +5849,11 @@
       <c r="D216">
         <v>215</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="2">
+        <v>0.4103</v>
+      </c>
+      <c r="F216" t="s">
         <v>203</v>
-      </c>
-      <c r="F216" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
